--- a/investing spreadsheets/AAPL.xlsx
+++ b/investing spreadsheets/AAPL.xlsx
@@ -20,6 +20,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>LOOK</author>
+  </authors>
+  <commentList>
+    <comment ref="B89" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>LOOK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Purchases of marketable securities+Proceeds from maturities of marketable securities+Proceeds from sales of marketable securities</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="851">
   <si>
@@ -2585,7 +2619,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2605,6 +2639,19 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3251,7 +3298,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3494,14 +3541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HN99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI17" sqref="AI17"/>
+      <selection pane="bottomRight" activeCell="S73" sqref="S73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8553,7 +8600,10 @@
         <f>21514+33769+177645</f>
         <v>232928</v>
       </c>
-      <c r="U46" s="5"/>
+      <c r="U46" s="5">
+        <f>18237+43519+169764</f>
+        <v>231520</v>
+      </c>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
@@ -8593,7 +8643,9 @@
       <c r="T47" s="5">
         <v>12229</v>
       </c>
-      <c r="U47" s="5"/>
+      <c r="U47" s="5">
+        <v>11714</v>
+      </c>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
@@ -8633,7 +8685,9 @@
       <c r="T48" s="5">
         <v>2281</v>
       </c>
-      <c r="U48" s="5"/>
+      <c r="U48" s="5">
+        <v>1831</v>
+      </c>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
@@ -8673,7 +8727,9 @@
       <c r="T49" s="5">
         <v>7595</v>
       </c>
-      <c r="U49" s="5"/>
+      <c r="U49" s="5">
+        <v>7328</v>
+      </c>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
@@ -8713,7 +8769,9 @@
       <c r="T50" s="5">
         <v>10204</v>
       </c>
-      <c r="U50" s="5"/>
+      <c r="U50" s="5">
+        <v>11132</v>
+      </c>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
@@ -8753,7 +8811,9 @@
       <c r="T51" s="5">
         <v>23203</v>
       </c>
-      <c r="U51" s="5"/>
+      <c r="U51" s="5">
+        <v>25448</v>
+      </c>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
@@ -8798,7 +8858,10 @@
         <f>5249+3843</f>
         <v>9092</v>
       </c>
-      <c r="U52" s="5"/>
+      <c r="U52" s="5">
+        <f>5261+3506</f>
+        <v>8767</v>
+      </c>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
@@ -8841,7 +8904,9 @@
       <c r="T53" s="5">
         <v>7745</v>
       </c>
-      <c r="U53" s="5"/>
+      <c r="U53" s="5">
+        <v>7862</v>
+      </c>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
@@ -8886,7 +8951,10 @@
         <f>SUM(T46:T53)</f>
         <v>305277</v>
       </c>
-      <c r="U54" s="5"/>
+      <c r="U54" s="10">
+        <f>SUM(U46:U53)</f>
+        <v>305602</v>
+      </c>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
@@ -8926,7 +8994,9 @@
       <c r="T56" s="5">
         <v>25098</v>
       </c>
-      <c r="U56" s="5"/>
+      <c r="U56" s="5">
+        <v>26318</v>
+      </c>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
@@ -8966,7 +9036,9 @@
       <c r="T57" s="5">
         <v>23208</v>
       </c>
-      <c r="U57" s="5"/>
+      <c r="U57" s="5">
+        <v>20820</v>
+      </c>
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
@@ -9011,7 +9083,10 @@
         <f>9461+3322</f>
         <v>12783</v>
       </c>
-      <c r="U58" s="5"/>
+      <c r="U58" s="5">
+        <f>8352+3064</f>
+        <v>11416</v>
+      </c>
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
@@ -9056,7 +9131,10 @@
         <f>69374+2500+7998</f>
         <v>79872</v>
       </c>
-      <c r="U59" s="5"/>
+      <c r="U59" s="5">
+        <f>3500+68939+12496</f>
+        <v>84935</v>
+      </c>
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
@@ -9096,7 +9174,9 @@
       <c r="T60" s="5">
         <v>33859</v>
       </c>
-      <c r="U60" s="5"/>
+      <c r="U60" s="5">
+        <v>35572</v>
+      </c>
       <c r="V60" s="5"/>
       <c r="W60" s="5"/>
       <c r="X60" s="5"/>
@@ -9141,7 +9221,10 @@
         <f>SUM(T56:T60)</f>
         <v>174820</v>
       </c>
-      <c r="U61" s="5"/>
+      <c r="U61" s="10">
+        <f>SUM(U56:U60)</f>
+        <v>179061</v>
+      </c>
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
       <c r="X61" s="5"/>
@@ -9181,7 +9264,9 @@
       <c r="T62" s="10">
         <v>130457</v>
       </c>
-      <c r="U62" s="7"/>
+      <c r="U62" s="10">
+        <v>126541</v>
+      </c>
       <c r="V62" s="7"/>
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
@@ -9226,7 +9311,10 @@
         <f>T62+T61</f>
         <v>305277</v>
       </c>
-      <c r="U63" s="5"/>
+      <c r="U63" s="5">
+        <f>U62+U61</f>
+        <v>305602</v>
+      </c>
       <c r="V63" s="5"/>
       <c r="W63" s="5"/>
       <c r="X63" s="5"/>
@@ -9238,10 +9326,12 @@
       <c r="B65" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="S65" s="7">
-        <f>SUM(P34:S34)</f>
-        <v>53731</v>
-      </c>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7">
+        <f>SUM(Q34:T34)</f>
+        <v>50678</v>
+      </c>
+      <c r="U65" s="7"/>
     </row>
     <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
@@ -9264,8 +9354,12 @@
         <v>0.41889963903420208</v>
       </c>
       <c r="T66" s="8">
-        <f t="shared" ref="T66" si="244">SUM(Q34:T34)/T62</f>
+        <f t="shared" ref="T66:U66" si="244">SUM(Q34:T34)/T62</f>
         <v>0.38846516476693471</v>
+      </c>
+      <c r="U66" s="8">
+        <f t="shared" si="244"/>
+        <v>0.37771947432057595</v>
       </c>
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.2">
@@ -9273,24 +9367,28 @@
         <v>67</v>
       </c>
       <c r="P67" s="8">
-        <f t="shared" ref="P67:R67" si="245">$S$65/P54</f>
-        <v>0.20571299493862799</v>
+        <f>$T$65/P54</f>
+        <v>0.19402436503135601</v>
       </c>
       <c r="Q67" s="8">
-        <f t="shared" si="245"/>
-        <v>0.19670804792953347</v>
+        <f t="shared" ref="Q67:T67" si="245">$T$65/Q54</f>
+        <v>0.18553107987889483</v>
       </c>
       <c r="R67" s="8">
         <f t="shared" si="245"/>
-        <v>0.18497378467978753</v>
+        <v>0.17446355846722139</v>
       </c>
       <c r="S67" s="8">
-        <f>$S$65/S54</f>
-        <v>0.18320467533176035</v>
+        <f t="shared" si="245"/>
+        <v>0.17279497006314698</v>
       </c>
       <c r="T67" s="8">
-        <f t="shared" ref="T67" si="246">$S$65/T54</f>
-        <v>0.1760073638040206</v>
+        <f t="shared" si="245"/>
+        <v>0.16600661038990819</v>
+      </c>
+      <c r="U67" s="8">
+        <f t="shared" ref="U67" si="246">$T$65/U54</f>
+        <v>0.16583006655715604</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.2">
@@ -9298,24 +9396,28 @@
         <v>68</v>
       </c>
       <c r="P68" s="8">
-        <f t="shared" ref="P68:R68" si="247">$S$65/(P62-P52)</f>
-        <v>0.44688690387078528</v>
+        <f>$T$65/(P62-P52)</f>
+        <v>0.42149475190046076</v>
       </c>
       <c r="Q68" s="8">
-        <f t="shared" si="247"/>
-        <v>0.45981310010782683</v>
+        <f t="shared" ref="Q68:T68" si="247">$T$65/(Q62-Q52)</f>
+        <v>0.43368648056549197</v>
       </c>
       <c r="R68" s="8">
         <f t="shared" si="247"/>
-        <v>0.48693201384735285</v>
+        <v>0.45926449531473729</v>
       </c>
       <c r="S68" s="8">
-        <f>$S$65/(S62-S52)</f>
-        <v>0.45098664607481892</v>
+        <f t="shared" si="247"/>
+        <v>0.4253615464030015</v>
       </c>
       <c r="T68" s="8">
-        <f t="shared" ref="T68" si="248">$S$65/(T62-T52)</f>
-        <v>0.44272236641535861</v>
+        <f t="shared" si="247"/>
+        <v>0.41756684381823428</v>
+      </c>
+      <c r="U68" s="8">
+        <f t="shared" ref="U68" si="248">$T$65/(U62-U52)</f>
+        <v>0.43029870769439776</v>
       </c>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.2">
@@ -9323,24 +9425,28 @@
         <v>69</v>
       </c>
       <c r="P69" s="8">
-        <f t="shared" ref="P69:R69" si="249">$S$65/(P47+P48+P49+P50+P51+P53)</f>
-        <v>0.91250445799296909</v>
+        <f>$T$65/(P47+P48+P49+P50+P51+P53)</f>
+        <v>0.86065587690844558</v>
       </c>
       <c r="Q69" s="8">
-        <f t="shared" si="249"/>
-        <v>0.87395901106050744</v>
+        <f t="shared" ref="Q69:T69" si="249">$T$65/(Q47+Q48+Q49+Q50+Q51+Q53)</f>
+        <v>0.8243005855562785</v>
       </c>
       <c r="R69" s="8">
         <f t="shared" si="249"/>
-        <v>0.70881483826710989</v>
+        <v>0.6685399187377975</v>
       </c>
       <c r="S69" s="8">
-        <f>$S$65/(S47+S48+S49+S50+S51+S53)</f>
-        <v>0.7853227904529444</v>
+        <f t="shared" si="249"/>
+        <v>0.74070068255893828</v>
       </c>
       <c r="T69" s="8">
-        <f t="shared" ref="T69" si="250">$S$65/(T47+T48+T49+T50+T51+T53)</f>
-        <v>0.84940797065937368</v>
+        <f t="shared" si="249"/>
+        <v>0.80114453736345381</v>
+      </c>
+      <c r="U69" s="8">
+        <f t="shared" ref="U69" si="250">$T$65/(U47+U48+U49+U50+U51+U53)</f>
+        <v>0.77590140090331472</v>
       </c>
     </row>
     <row r="72" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -9371,7 +9477,10 @@
         <f>T34</f>
         <v>10516</v>
       </c>
-      <c r="U72" s="5"/>
+      <c r="U72" s="5">
+        <f>U34</f>
+        <v>7796</v>
+      </c>
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
@@ -9406,7 +9515,10 @@
         <f>28877-S73</f>
         <v>10516</v>
       </c>
-      <c r="U73" s="5"/>
+      <c r="U73" s="5">
+        <f>36673-T73-S73</f>
+        <v>7796</v>
+      </c>
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
@@ -9441,7 +9553,10 @@
         <f>5431-S74</f>
         <v>2477</v>
       </c>
-      <c r="U74" s="5"/>
+      <c r="U74" s="5">
+        <f>7957-T74-S74</f>
+        <v>2526</v>
+      </c>
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
@@ -9476,7 +9591,10 @@
         <f>2126-S75</f>
         <v>1048</v>
       </c>
-      <c r="U75" s="5"/>
+      <c r="U75" s="5">
+        <f>3180-T75-S75</f>
+        <v>1054</v>
+      </c>
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
@@ -9511,7 +9629,10 @@
         <f>3092-S76</f>
         <v>1500</v>
       </c>
-      <c r="U76" s="5"/>
+      <c r="U76" s="5">
+        <f>5191-T76-S76</f>
+        <v>2099</v>
+      </c>
       <c r="V76" s="5"/>
       <c r="W76" s="5"/>
       <c r="X76" s="5"/>
@@ -9546,7 +9667,10 @@
         <f>4620-S77</f>
         <v>724</v>
       </c>
-      <c r="U77" s="5"/>
+      <c r="U77" s="5">
+        <f>5135-T77-S77</f>
+        <v>515</v>
+      </c>
       <c r="V77" s="5"/>
       <c r="W77" s="5"/>
       <c r="X77" s="5"/>
@@ -9581,7 +9705,10 @@
         <f>68-S78</f>
         <v>170</v>
       </c>
-      <c r="U78" s="5"/>
+      <c r="U78" s="5">
+        <f>518-T78-S78</f>
+        <v>450</v>
+      </c>
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
       <c r="X78" s="5"/>
@@ -9616,7 +9743,10 @@
         <f>5899-S79</f>
         <v>4073</v>
       </c>
-      <c r="U79" s="5"/>
+      <c r="U79" s="5">
+        <f>6166-T79-S79</f>
+        <v>267</v>
+      </c>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
@@ -9651,7 +9781,10 @@
         <f>300-S80</f>
         <v>1193</v>
       </c>
-      <c r="U80" s="5"/>
+      <c r="U80" s="5">
+        <f>1143-T80-S80</f>
+        <v>843</v>
+      </c>
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
       <c r="X80" s="5"/>
@@ -9686,7 +9819,10 @@
         <f>-9475-S81</f>
         <v>-8623</v>
       </c>
-      <c r="U81" s="5"/>
+      <c r="U81" s="5">
+        <f>-9622-T81-S81</f>
+        <v>-147</v>
+      </c>
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
@@ -9721,7 +9857,10 @@
         <f>219-S82</f>
         <v>248</v>
       </c>
-      <c r="U82" s="5"/>
+      <c r="U82" s="5">
+        <f>-1148-T82-S82</f>
+        <v>-1367</v>
+      </c>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
@@ -9756,7 +9895,10 @@
         <f>-2093-S83</f>
         <v>-1725</v>
       </c>
-      <c r="U83" s="5"/>
+      <c r="U83" s="5">
+        <f>-5495-T83-S83</f>
+        <v>-3402</v>
+      </c>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
@@ -9792,7 +9934,10 @@
         <f>SUM(T73:T83)</f>
         <v>11601</v>
       </c>
-      <c r="U84" s="5"/>
+      <c r="U84" s="5">
+        <f>SUM(U73:U83)</f>
+        <v>10634</v>
+      </c>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
@@ -9825,10 +9970,13 @@
         <v>-480</v>
       </c>
       <c r="T86" s="5">
-        <f>-140-S86-657</f>
+        <f>-140-657-S86</f>
         <v>-317</v>
       </c>
-      <c r="U86" s="5"/>
+      <c r="U86" s="5">
+        <f>-146-753-T86-S86</f>
+        <v>-102</v>
+      </c>
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
@@ -9863,7 +10011,10 @@
         <f>-5948-S87</f>
         <v>-2336</v>
       </c>
-      <c r="U87" s="5"/>
+      <c r="U87" s="5">
+        <f>-8757-T87-S87</f>
+        <v>-2809</v>
+      </c>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
@@ -9898,7 +10049,10 @@
         <f>-322-S88</f>
         <v>-24</v>
       </c>
-      <c r="U88" s="5"/>
+      <c r="U88" s="5">
+        <f>-321-T88-S88</f>
+        <v>1</v>
+      </c>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
@@ -9934,7 +10088,10 @@
         <f>-86242+9148+50051-S89</f>
         <v>-10983</v>
       </c>
-      <c r="U89" s="5"/>
+      <c r="U89" s="5">
+        <f>-112068+14915+69926-T89-S89</f>
+        <v>-184</v>
+      </c>
       <c r="V89" s="5"/>
       <c r="W89" s="5"/>
       <c r="X89" s="5"/>
@@ -9970,7 +10127,10 @@
         <f>SUM(T86:T89)</f>
         <v>-13660</v>
       </c>
-      <c r="U90" s="5"/>
+      <c r="U90" s="5">
+        <f>SUM(U86:U89)</f>
+        <v>-3094</v>
+      </c>
       <c r="V90" s="5"/>
       <c r="W90" s="5"/>
       <c r="X90" s="5"/>
@@ -10005,7 +10165,10 @@
         <f>-13530-S92</f>
         <v>-6667</v>
       </c>
-      <c r="U92" s="5"/>
+      <c r="U92" s="5">
+        <f>-23696-T92-S92</f>
+        <v>-10166</v>
+      </c>
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
       <c r="X92" s="5"/>
@@ -10040,7 +10203,10 @@
         <f>-5871-S93</f>
         <v>-2902</v>
       </c>
-      <c r="U93" s="5"/>
+      <c r="U93" s="5">
+        <f>-9058-T93-S93</f>
+        <v>-3187</v>
+      </c>
       <c r="V93" s="5"/>
       <c r="W93" s="5"/>
       <c r="X93" s="5"/>
@@ -10076,7 +10242,10 @@
         <f>247+264-751+15584-503-S94</f>
         <v>16453</v>
       </c>
-      <c r="U94" s="5"/>
+      <c r="U94" s="5">
+        <f>247+391-1361+17984-2500+3992-T94-S94</f>
+        <v>3912</v>
+      </c>
       <c r="V94" s="5"/>
       <c r="W94" s="5"/>
       <c r="X94" s="5"/>
@@ -10112,7 +10281,10 @@
         <f>SUM(T92:T94)</f>
         <v>6884</v>
       </c>
-      <c r="U95" s="5"/>
+      <c r="U95" s="5">
+        <f>SUM(U92:U94)</f>
+        <v>-9441</v>
+      </c>
       <c r="V95" s="5"/>
       <c r="W95" s="5"/>
       <c r="X95" s="5"/>
@@ -10147,7 +10319,7 @@
       <c r="Z96" s="5"/>
       <c r="AA96" s="5"/>
     </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
         <v>94</v>
       </c>
@@ -10159,8 +10331,12 @@
         <f>T95+T90+T84</f>
         <v>4825</v>
       </c>
-    </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="5">
+        <f>U95+U90+U84</f>
+        <v>-1901</v>
+      </c>
+    </row>
+    <row r="98" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>95</v>
       </c>
@@ -10172,8 +10348,12 @@
         <f>T45-S45</f>
         <v>280</v>
       </c>
-    </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="5">
+        <f>U45-T45</f>
+        <v>7796</v>
+      </c>
+    </row>
+    <row r="99" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
         <v>96</v>
       </c>
@@ -10184,6 +10364,10 @@
       <c r="T99" s="5">
         <f>+T84+T87-T75</f>
         <v>8217</v>
+      </c>
+      <c r="U99" s="5">
+        <f>+U84+U87-U75</f>
+        <v>6771</v>
       </c>
     </row>
   </sheetData>
@@ -10193,6 +10377,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/investing spreadsheets/AAPL.xlsx
+++ b/investing spreadsheets/AAPL.xlsx
@@ -2921,13 +2921,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -2938,7 +2938,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15049500" y="0"/>
+          <a:off x="15011400" y="0"/>
           <a:ext cx="0" cy="17306925"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3298,7 +3298,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3545,10 +3545,10 @@
   <dimension ref="A1:HN99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S73" sqref="S73"/>
+      <selection pane="bottomRight" activeCell="AK27" sqref="AK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8932,27 +8932,27 @@
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5">
-        <f>SUM(P46:P53)</f>
+        <f t="shared" ref="P54:U54" si="244">SUM(P46:P53)</f>
         <v>261194</v>
       </c>
       <c r="Q54" s="5">
-        <f>SUM(Q46:Q53)</f>
+        <f t="shared" si="244"/>
         <v>273151</v>
       </c>
       <c r="R54" s="5">
-        <f>SUM(R46:R53)</f>
+        <f t="shared" si="244"/>
         <v>290479</v>
       </c>
       <c r="S54" s="10">
-        <f>SUM(S46:S53)</f>
+        <f t="shared" si="244"/>
         <v>293284</v>
       </c>
       <c r="T54" s="10">
-        <f>SUM(T46:T53)</f>
+        <f t="shared" si="244"/>
         <v>305277</v>
       </c>
       <c r="U54" s="10">
-        <f>SUM(U46:U53)</f>
+        <f t="shared" si="244"/>
         <v>305602</v>
       </c>
       <c r="V54" s="5"/>
@@ -9202,27 +9202,27 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5">
-        <f>SUM(P56:P60)</f>
+        <f t="shared" ref="P61:U61" si="245">SUM(P56:P60)</f>
         <v>132188</v>
       </c>
       <c r="Q61" s="5">
-        <f>SUM(Q56:Q60)</f>
+        <f t="shared" si="245"/>
         <v>147474</v>
       </c>
       <c r="R61" s="5">
-        <f>SUM(R56:R60)</f>
+        <f t="shared" si="245"/>
         <v>171124</v>
       </c>
       <c r="S61" s="10">
-        <f>SUM(S56:S60)</f>
+        <f t="shared" si="245"/>
         <v>165017</v>
       </c>
       <c r="T61" s="10">
-        <f>SUM(T56:T60)</f>
+        <f t="shared" si="245"/>
         <v>174820</v>
       </c>
       <c r="U61" s="10">
-        <f>SUM(U56:U60)</f>
+        <f t="shared" si="245"/>
         <v>179061</v>
       </c>
       <c r="V61" s="5"/>
@@ -9292,27 +9292,27 @@
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5">
-        <f>P62+P61</f>
+        <f t="shared" ref="P63:U63" si="246">P62+P61</f>
         <v>261194</v>
       </c>
       <c r="Q63" s="5">
-        <f>Q62+Q61</f>
+        <f t="shared" si="246"/>
         <v>273151</v>
       </c>
       <c r="R63" s="5">
-        <f>R62+R61</f>
+        <f t="shared" si="246"/>
         <v>290479</v>
       </c>
       <c r="S63" s="5">
-        <f>S62+S61</f>
+        <f t="shared" si="246"/>
         <v>293284</v>
       </c>
       <c r="T63" s="5">
-        <f>T62+T61</f>
+        <f t="shared" si="246"/>
         <v>305277</v>
       </c>
       <c r="U63" s="5">
-        <f>U62+U61</f>
+        <f t="shared" si="246"/>
         <v>305602</v>
       </c>
       <c r="V63" s="5"/>
@@ -9354,11 +9354,11 @@
         <v>0.41889963903420208</v>
       </c>
       <c r="T66" s="8">
-        <f t="shared" ref="T66:U66" si="244">SUM(Q34:T34)/T62</f>
+        <f t="shared" ref="T66:U66" si="247">SUM(Q34:T34)/T62</f>
         <v>0.38846516476693471</v>
       </c>
       <c r="U66" s="8">
-        <f t="shared" si="244"/>
+        <f t="shared" si="247"/>
         <v>0.37771947432057595</v>
       </c>
     </row>
@@ -9371,23 +9371,23 @@
         <v>0.19402436503135601</v>
       </c>
       <c r="Q67" s="8">
-        <f t="shared" ref="Q67:T67" si="245">$T$65/Q54</f>
+        <f t="shared" ref="Q67:T67" si="248">$T$65/Q54</f>
         <v>0.18553107987889483</v>
       </c>
       <c r="R67" s="8">
-        <f t="shared" si="245"/>
+        <f t="shared" si="248"/>
         <v>0.17446355846722139</v>
       </c>
       <c r="S67" s="8">
-        <f t="shared" si="245"/>
+        <f t="shared" si="248"/>
         <v>0.17279497006314698</v>
       </c>
       <c r="T67" s="8">
-        <f t="shared" si="245"/>
+        <f t="shared" si="248"/>
         <v>0.16600661038990819</v>
       </c>
       <c r="U67" s="8">
-        <f t="shared" ref="U67" si="246">$T$65/U54</f>
+        <f t="shared" ref="U67" si="249">$T$65/U54</f>
         <v>0.16583006655715604</v>
       </c>
     </row>
@@ -9400,23 +9400,23 @@
         <v>0.42149475190046076</v>
       </c>
       <c r="Q68" s="8">
-        <f t="shared" ref="Q68:T68" si="247">$T$65/(Q62-Q52)</f>
+        <f t="shared" ref="Q68:T68" si="250">$T$65/(Q62-Q52)</f>
         <v>0.43368648056549197</v>
       </c>
       <c r="R68" s="8">
-        <f t="shared" si="247"/>
+        <f t="shared" si="250"/>
         <v>0.45926449531473729</v>
       </c>
       <c r="S68" s="8">
-        <f t="shared" si="247"/>
+        <f t="shared" si="250"/>
         <v>0.4253615464030015</v>
       </c>
       <c r="T68" s="8">
-        <f t="shared" si="247"/>
+        <f t="shared" si="250"/>
         <v>0.41756684381823428</v>
       </c>
       <c r="U68" s="8">
-        <f t="shared" ref="U68" si="248">$T$65/(U62-U52)</f>
+        <f t="shared" ref="U68" si="251">$T$65/(U62-U52)</f>
         <v>0.43029870769439776</v>
       </c>
     </row>
@@ -9429,23 +9429,23 @@
         <v>0.86065587690844558</v>
       </c>
       <c r="Q69" s="8">
-        <f t="shared" ref="Q69:T69" si="249">$T$65/(Q47+Q48+Q49+Q50+Q51+Q53)</f>
+        <f t="shared" ref="Q69:T69" si="252">$T$65/(Q47+Q48+Q49+Q50+Q51+Q53)</f>
         <v>0.8243005855562785</v>
       </c>
       <c r="R69" s="8">
-        <f t="shared" si="249"/>
+        <f t="shared" si="252"/>
         <v>0.6685399187377975</v>
       </c>
       <c r="S69" s="8">
-        <f t="shared" si="249"/>
+        <f t="shared" si="252"/>
         <v>0.74070068255893828</v>
       </c>
       <c r="T69" s="8">
-        <f t="shared" si="249"/>
+        <f t="shared" si="252"/>
         <v>0.80114453736345381</v>
       </c>
       <c r="U69" s="8">
-        <f t="shared" ref="U69" si="250">$T$65/(U47+U48+U49+U50+U51+U53)</f>
+        <f t="shared" ref="U69" si="253">$T$65/(U47+U48+U49+U50+U51+U53)</f>
         <v>0.77590140090331472</v>
       </c>
     </row>

--- a/investing spreadsheets/AAPL.xlsx
+++ b/investing spreadsheets/AAPL.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="IP" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LOOK:</t>
         </r>
@@ -43,7 +43,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Purchases of marketable securities+Proceeds from maturities of marketable securities+Proceeds from sales of marketable securities</t>
@@ -2644,14 +2644,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3298,7 +3298,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3545,10 +3545,10 @@
   <dimension ref="A1:HN99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK27" sqref="AK27"/>
+      <selection pane="bottomRight" activeCell="U66" sqref="U66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/investing spreadsheets/AAPL.xlsx
+++ b/investing spreadsheets/AAPL.xlsx
@@ -3309,7 +3309,7 @@
   <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3348,10 +3348,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <v>5388</v>
+        <v>5473</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="K4" s="3">
         <f>+K3*K2</f>
-        <v>571128</v>
+        <v>580138</v>
       </c>
       <c r="L4" s="2"/>
     </row>
@@ -3387,14 +3387,14 @@
         <v>3</v>
       </c>
       <c r="K5" s="3">
-        <v>232928</v>
+        <v>231520</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N5" s="4">
         <f>N6/K4</f>
-        <v>0.26798896219411411</v>
+        <v>0.25267263995807893</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -3411,14 +3411,14 @@
         <v>4</v>
       </c>
       <c r="K6" s="3">
-        <v>79872</v>
+        <v>84935</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N6" s="3">
         <f>+K5-K6</f>
-        <v>153056</v>
+        <v>146585</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="K7" s="3">
         <f>+K4-K5+K6</f>
-        <v>418072</v>
+        <v>433553</v>
       </c>
       <c r="L7" s="2"/>
       <c r="N7" s="3"/>
@@ -3545,10 +3545,10 @@
   <dimension ref="A1:HN99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U66" sqref="U66"/>
+      <selection pane="bottomRight" activeCell="BA43" sqref="BA43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8277,7 +8277,7 @@
       </c>
       <c r="BA41" s="3">
         <f>Main!K5-Main!K6</f>
-        <v>153056</v>
+        <v>146585</v>
       </c>
       <c r="BD41" s="4"/>
     </row>
@@ -8288,7 +8288,7 @@
       </c>
       <c r="BA42" s="3">
         <f>BA40+BA41</f>
-        <v>620799.26785725751</v>
+        <v>614328.26785725751</v>
       </c>
       <c r="BD42" s="4"/>
     </row>
@@ -8345,7 +8345,7 @@
         <v>-0.12847784864678502</v>
       </c>
       <c r="U43" s="13">
-        <f t="shared" si="235"/>
+        <f>U24/Q24-1</f>
         <v>-0.14609414373551055</v>
       </c>
       <c r="V43" s="13">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="BA43" s="21">
         <f>BA42/Main!K3</f>
-        <v>115.21886931277979</v>
+        <v>112.24707982043806</v>
       </c>
       <c r="BC43" s="23"/>
       <c r="BD43" s="24"/>
@@ -8560,7 +8560,7 @@
       </c>
       <c r="BA45" s="4">
         <f>BA43/BA44-1</f>
-        <v>8.6970465214903703E-2</v>
+        <v>5.8934715287151551E-2</v>
       </c>
     </row>
     <row r="46" spans="2:222" s="3" customFormat="1" x14ac:dyDescent="0.2">
